--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="AddCustomer" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>firstName</t>
   </si>
@@ -35,6 +36,24 @@
   </si>
   <si>
     <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Raman Arora</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Jain</t>
   </si>
 </sst>
 </file>
@@ -70,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -399,11 +419,57 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>12323</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="AddCustomer" sheetId="1" r:id="rId1"/>
     <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
+    <sheet name="TestSuite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>firstName</t>
   </si>
@@ -54,19 +55,48 @@
   </si>
   <si>
     <t>Jain</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>AddCustomer</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>logintests</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Charu</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Arshi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -398,7 +429,7 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +442,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -425,8 +459,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -438,6 +475,43 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>23343</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>45454</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -475,4 +549,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>